--- a/applications/master/data/national/master_settings.xlsx
+++ b/applications/master/data/national/master_settings.xlsx
@@ -8,33 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B3ABFF17-A025-F34A-A689-DB772B82046A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7368D6BA-AA1C-4A4D-AE93-980F43005402}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="-19200" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="4" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Programs to include" sheetId="3" r:id="rId1"/>
-    <sheet name="Reference programs" sheetId="5" r:id="rId2"/>
-    <sheet name="Program dependencies" sheetId="4" r:id="rId3"/>
-    <sheet name="Programs annual spending" sheetId="2" r:id="rId4"/>
+    <sheet name="IYCF packages" sheetId="7" r:id="rId1"/>
+    <sheet name="Programs to include" sheetId="3" r:id="rId2"/>
+    <sheet name="Programs cost and coverage" sheetId="9" r:id="rId3"/>
+    <sheet name="IYCF cost" sheetId="10" r:id="rId4"/>
+    <sheet name="Program dependencies" sheetId="4" r:id="rId5"/>
+    <sheet name="Reference programs" sheetId="5" r:id="rId6"/>
+    <sheet name="Programs annual spending" sheetId="2" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="abortion">'[2]Baseline year population inputs'!$C$26</definedName>
-    <definedName name="food_insecure">'[2]Baseline year population inputs'!$C$3</definedName>
-    <definedName name="frac_maize">'[2]Baseline year population inputs'!$C$14</definedName>
-    <definedName name="frac_malaria_risk">'[2]Baseline year population inputs'!$C$4</definedName>
-    <definedName name="frac_rice">'[2]Baseline year population inputs'!$C$12</definedName>
-    <definedName name="frac_wheat">'[2]Baseline year population inputs'!$C$13</definedName>
-    <definedName name="iron_deficiency_anaemia">'[2]Baseline year population inputs'!$C$47</definedName>
-    <definedName name="preterm_AGA">'[2]Baseline year population inputs'!$C$34</definedName>
-    <definedName name="preterm_SGA">'[2]Baseline year population inputs'!$C$33</definedName>
-    <definedName name="school_attendance">'[2]Baseline year population inputs'!$C$5</definedName>
-    <definedName name="stillbirth">'[2]Baseline year population inputs'!$C$27</definedName>
-    <definedName name="term_SGA">'[2]Baseline year population inputs'!$C$35</definedName>
+    <definedName name="abortion">'[1]Baseline year population inputs'!$C$26</definedName>
+    <definedName name="food_insecure">'[1]Baseline year population inputs'!$C$3</definedName>
+    <definedName name="frac_maize">'[1]Baseline year population inputs'!$C$14</definedName>
+    <definedName name="frac_malaria_risk">'[1]Baseline year population inputs'!$C$4</definedName>
+    <definedName name="frac_mam_1_5months">'[1]Nutritional status distribution'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'[1]Nutritional status distribution'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'[1]Nutritional status distribution'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'[1]Nutritional status distribution'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'[1]Nutritional status distribution'!$E$10</definedName>
+    <definedName name="frac_rice">'[1]Baseline year population inputs'!$C$12</definedName>
+    <definedName name="frac_sam_1_5months">'[1]Nutritional status distribution'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'[1]Nutritional status distribution'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'[1]Nutritional status distribution'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'[1]Nutritional status distribution'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'[1]Nutritional status distribution'!$E$11</definedName>
+    <definedName name="frac_wheat">'[1]Baseline year population inputs'!$C$13</definedName>
+    <definedName name="iron_deficiency_anaemia">'[1]Baseline year population inputs'!$C$47</definedName>
+    <definedName name="preterm_AGA">'[1]Baseline year population inputs'!$C$34</definedName>
+    <definedName name="preterm_SGA">'[1]Baseline year population inputs'!$C$33</definedName>
+    <definedName name="school_attendance">'[1]Baseline year population inputs'!$C$5</definedName>
+    <definedName name="stillbirth">'[1]Baseline year population inputs'!$C$27</definedName>
+    <definedName name="term_SGA">'[1]Baseline year population inputs'!$C$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,8 +61,202 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Microsoft Office User</author>
-    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If user wants this, it must be checked for </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>all populations</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{0F3D7585-AEE5-E942-9F79-E97E7B1F04C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Only have IFAS</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E06AC39A-4136-7746-A8F8-FB3A8167FF72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.5*unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{AFCB412D-7279-764A-80D8-14D46A4E6FBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.5* unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{441B7DF5-20BC-1E4B-897D-77225B26BECE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Totally fictional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000001000000}">
@@ -101,132 +307,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1900-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1900-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1900-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1900-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1900-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="82">
   <si>
     <t>Coverage</t>
   </si>
@@ -412,13 +498,76 @@
   </si>
   <si>
     <t>Exclusion dependency</t>
+  </si>
+  <si>
+    <t>Public provision of complementary foods with iron</t>
+  </si>
+  <si>
+    <t>Public provision of complementary foods with iron (malaria area)</t>
+  </si>
+  <si>
+    <t>Sprinkles</t>
+  </si>
+  <si>
+    <t>Sprinkles (malaria area)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>12-23 months</t>
+  </si>
+  <si>
+    <t>6-11 months</t>
+  </si>
+  <si>
+    <t>1-5 months</t>
+  </si>
+  <si>
+    <t>&lt;1 month</t>
+  </si>
+  <si>
+    <t>Pregnant women</t>
+  </si>
+  <si>
+    <t>Mass media</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Health facility</t>
+  </si>
+  <si>
+    <t>Target population</t>
+  </si>
+  <si>
+    <t>IYCF package</t>
+  </si>
+  <si>
+    <t>Calculated in model</t>
+  </si>
+  <si>
+    <t>unit cost</t>
+  </si>
+  <si>
+    <t>baseline coverage</t>
+  </si>
+  <si>
+    <t>saturation coverage of target population</t>
+  </si>
+  <si>
+    <t>Unit costs by delivery modality and target population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,19 +607,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
@@ -482,8 +618,47 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,12 +677,113 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -516,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -528,6 +804,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,6 +853,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF007600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -550,363 +873,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Baseline year demographics"/>
-      <sheetName val="Demographic projections"/>
-      <sheetName val="Annual prevalence"/>
-      <sheetName val="Causes of death"/>
-      <sheetName val="Incidence of conditions"/>
-      <sheetName val="Prevalence of anaemia"/>
-      <sheetName val="Distributions"/>
-      <sheetName val="Distribution births"/>
-      <sheetName val="Birth outcomes &amp; risks"/>
-      <sheetName val="IYCF packages"/>
-      <sheetName val="IYCF cost &amp; coverage"/>
-      <sheetName val="Programs to include"/>
-      <sheetName val="Program dependencies"/>
-      <sheetName val="Programs annual scale-up"/>
-      <sheetName val="Programs annual spending"/>
-      <sheetName val="Reference programs"/>
-      <sheetName val="Programs cost and coverage"/>
-      <sheetName val="Expenditure &amp; budget"/>
-      <sheetName val="Appropriate breastfeeding"/>
-      <sheetName val="IYCF package odds ratios"/>
-      <sheetName val="Relative risks"/>
-      <sheetName val="Odds ratios"/>
-      <sheetName val="Programs birth outcomes"/>
-      <sheetName val="Programs anaemia"/>
-      <sheetName val="Programs wasting"/>
-      <sheetName val="Programs for children"/>
-      <sheetName val="Programs family planning"/>
-      <sheetName val="Programs for PW"/>
-      <sheetName val="Programs birth age"/>
-      <sheetName val="Programs target population"/>
-      <sheetName val="Programs impacted population"/>
-      <sheetName val="Program risk areas"/>
-      <sheetName val="Population risk areas"/>
-      <sheetName val="Programs anemia"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>2016</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Balanced energy-protein supplementation</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Birth age program</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Calcium supplementation</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Cash transfers</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Family Planning</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>IFA fortification of maize</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>IFA fortification of rice</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>IFA fortification of wheat flour</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>IFAS not poor: community</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>IFAS not poor: community (malaria area)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>IFAS not poor: hospital</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>IFAS not poor: hospital (malaria area)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>IFAS not poor: retailer</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>IFAS not poor: retailer (malaria area)</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>IFAS not poor: school</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>IFAS not poor: school (malaria area)</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>IFAS poor: community</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>IFAS poor: community (malaria area)</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>IFAS poor: hospital</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>IFAS poor: hospital (malaria area)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>IFAS poor: school</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>IFAS poor: school (malaria area)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>IPTp</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Iron and folic acid supplementation for pregnant women</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Iron and iodine fortification of salt</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Iron fortification of maize</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Iron fortification of rice</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Iron fortification of wheat flour</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Long-lasting insecticide-treated bednets</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Mg for eclampsia</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Mg for pre-eclampsia</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Multiple micronutrient supplementation</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Multiple micronutrient supplementation (malaria area)</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oral rehydration salts</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Public provision of complementary foods</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Public provision of complementary foods with iron</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Public provision of complementary foods with iron (malaria area)</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Sprinkles</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Sprinkles (malaria area)</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Treatment of MAM</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Treatment of SAM</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Vitamin A supplementation</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>WASH: Handwashing</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>WASH: Hygenic disposal</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>WASH: Improved sanitation</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>WASH: Improved water source</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>WASH: Piped water</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Zinc for treatment + ORS</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>Zinc supplementation</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>IYCF 1</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>IYCF 2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>IYCF 3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="6">
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Baseline year population inputs"/>
       <sheetName val="Causes of death"/>
       <sheetName val="Demographic projections"/>
@@ -915,11 +881,7 @@
       <sheetName val="Time trends"/>
       <sheetName val="Fertility risks"/>
       <sheetName val="Incidence of conditions"/>
-      <sheetName val="Wasting incidence"/>
-      <sheetName val="IYCF packages"/>
-      <sheetName val="IYCF target &amp; cost"/>
       <sheetName val="Programs target population"/>
-      <sheetName val="Programs cost and coverage"/>
       <sheetName val="Programs family planning"/>
     </sheetNames>
     <sheetDataSet>
@@ -987,17 +949,129 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="10">
+          <cell r="C10">
+            <v>0.15</v>
+          </cell>
+          <cell r="D10">
+            <v>0.15</v>
+          </cell>
+          <cell r="E10">
+            <v>0.129</v>
+          </cell>
+          <cell r="F10">
+            <v>0.11</v>
+          </cell>
+          <cell r="G10">
+            <v>0.105</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>4.9000000000000002E-2</v>
+          </cell>
+          <cell r="D11">
+            <v>4.9000000000000002E-2</v>
+          </cell>
+          <cell r="E11">
+            <v>5.2999999999999999E-2</v>
+          </cell>
+          <cell r="F11">
+            <v>4.0999999999999995E-2</v>
+          </cell>
+          <cell r="G11">
+            <v>2.1000000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7">
+        <row r="3">
+          <cell r="B3">
+            <v>0.39</v>
+          </cell>
+          <cell r="C3">
+            <v>0.39</v>
+          </cell>
+          <cell r="D3">
+            <v>0.33540000000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>0.28600000000000003</v>
+          </cell>
+          <cell r="F3">
+            <v>0.27300000000000002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.12740000000000001</v>
+          </cell>
+          <cell r="C4">
+            <v>0.12740000000000001</v>
+          </cell>
+          <cell r="D4">
+            <v>0.13780000000000001</v>
+          </cell>
+          <cell r="E4">
+            <v>0.10659999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>5.4600000000000003E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="E2">
+            <v>7.1999999999999995E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>3.7999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0.126</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1.3999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>0.40500000000000003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1299,14 +1373,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F053D34-B804-2C47-A5D2-94B1521A429F}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="37"/>
+      <c r="B5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="37"/>
+      <c r="B6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
+      <c r="B7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="37"/>
+      <c r="B10" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="37"/>
+      <c r="B17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="37"/>
+      <c r="B18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="37"/>
+      <c r="B19" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="37"/>
+      <c r="B20" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="37"/>
+      <c r="B21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9848D68B-8BFC-1547-A075-485AE6A3F40F}">
   <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
+    <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1328,7 +1621,7 @@
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1336,7 +1629,7 @@
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1344,7 +1637,7 @@
       <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1352,7 +1645,7 @@
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1360,7 +1653,7 @@
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1368,7 +1661,7 @@
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1376,7 +1669,7 @@
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1384,7 +1677,7 @@
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1392,7 +1685,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1400,7 +1693,7 @@
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1408,7 +1701,7 @@
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1416,7 +1709,7 @@
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1424,7 +1717,7 @@
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1432,7 +1725,7 @@
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1440,7 +1733,7 @@
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1448,7 +1741,7 @@
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1456,7 +1749,7 @@
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1464,7 +1757,7 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1472,7 +1765,7 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1480,7 +1773,7 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1488,7 +1781,7 @@
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1496,7 +1789,7 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1504,7 +1797,7 @@
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1512,7 +1805,7 @@
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1520,7 +1813,7 @@
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1528,7 +1821,7 @@
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1536,7 +1829,7 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1544,7 +1837,7 @@
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1552,7 +1845,7 @@
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1560,7 +1853,7 @@
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1568,7 +1861,7 @@
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1576,7 +1869,7 @@
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1584,7 +1877,7 @@
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1592,7 +1885,7 @@
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1600,7 +1893,7 @@
       <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1608,7 +1901,7 @@
       <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1616,7 +1909,7 @@
       <c r="A38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1624,7 +1917,7 @@
       <c r="A39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1632,7 +1925,7 @@
       <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1640,7 +1933,7 @@
       <c r="A41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1648,7 +1941,7 @@
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1656,7 +1949,7 @@
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1664,7 +1957,7 @@
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1672,7 +1965,7 @@
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1680,7 +1973,7 @@
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1688,7 +1981,7 @@
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1696,7 +1989,7 @@
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1704,7 +1997,7 @@
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1712,7 +2005,7 @@
       <c r="A50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1720,6 +2013,7 @@
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B51" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,15 +2021,1321 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB0C014-F6F1-454E-A570-EE02916F03F7}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="20">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="20">
+        <f>SUM('[1]Programs family planning'!E2:E10)</f>
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1.78</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1.78</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.74</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.18</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="20">
+        <v>2.99</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D35" s="20">
+        <v>2.99</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="20">
+        <v>48</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D38" s="20">
+        <v>50</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D39" s="20">
+        <v>51</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D42" s="21">
+        <f>30*AVERAGE('[1]Incidence of conditions'!B3:F3)</f>
+        <v>10.046400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D43" s="21">
+        <f>179.97*AVERAGE('[1]Incidence of conditions'!B4:F4)</f>
+        <v>19.933477200000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.621</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D45" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D46" s="20">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D47" s="20">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D48" s="20">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D49" s="20">
+        <v>231.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="17">
+        <v>0</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="17">
+        <v>0</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="17">
+        <v>0</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB87BDBB-DC6F-6841-98CA-17C4B765BA5B}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="66" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="20">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D2" s="20">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" ref="C3:C6" si="0">1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D6" si="1">0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8045335D-08EF-5C44-898B-B01065C9B11A}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7CF8CF-31A5-524F-89BE-B5C6D427B7DC}">
   <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
+    <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1750,44 +3350,74 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1795,335 +3425,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8045335D-08EF-5C44-898B-B01065C9B11A}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5816FB6D-401B-DF42-9A82-AB36791D3870}">
   <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
+    <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="1"/>
+    <col min="2" max="6" width="11.5" style="1"/>
+    <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2137,7 +3458,6 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2157,1060 +3477,954 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="str">
-        <f>'[1]Programs to include'!A2</f>
-        <v>Balanced energy-protein supplementation</v>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="str">
-        <f>A2</f>
-        <v>Balanced energy-protein supplementation</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="str">
-        <f>'[1]Programs to include'!A3</f>
-        <v>Birth age program</v>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="str">
-        <f>A4</f>
-        <v>Birth age program</v>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="str">
-        <f>'[1]Programs to include'!A4</f>
-        <v>Calcium supplementation</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="str">
-        <f>A6</f>
-        <v>Calcium supplementation</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="str">
-        <f>'[1]Programs to include'!A5</f>
-        <v>Cash transfers</v>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="str">
-        <f>A8</f>
-        <v>Cash transfers</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="str">
-        <f>'[1]Programs to include'!A6</f>
-        <v>Family Planning</v>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="str">
-        <f>A10</f>
-        <v>Family Planning</v>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="str">
-        <f>'[1]Programs to include'!A7</f>
-        <v>IFA fortification of maize</v>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="str">
-        <f>A12</f>
-        <v>IFA fortification of maize</v>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="str">
-        <f>'[1]Programs to include'!A8</f>
-        <v>IFA fortification of rice</v>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="str">
-        <f>A14</f>
-        <v>IFA fortification of rice</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="str">
-        <f>'[1]Programs to include'!A9</f>
-        <v>IFA fortification of wheat flour</v>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="str">
-        <f>A16</f>
-        <v>IFA fortification of wheat flour</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="str">
-        <f>'[1]Programs to include'!A10</f>
-        <v>IFAS not poor: community</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="str">
-        <f>A18</f>
-        <v>IFAS not poor: community</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="str">
-        <f>'[1]Programs to include'!A11</f>
-        <v>IFAS not poor: community (malaria area)</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="str">
-        <f>A20</f>
-        <v>IFAS not poor: community (malaria area)</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="str">
-        <f>'[1]Programs to include'!A12</f>
-        <v>IFAS not poor: hospital</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="str">
-        <f>A22</f>
-        <v>IFAS not poor: hospital</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="str">
-        <f>'[1]Programs to include'!A13</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="str">
-        <f>A24</f>
-        <v>IFAS not poor: hospital (malaria area)</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="str">
-        <f>'[1]Programs to include'!A14</f>
-        <v>IFAS not poor: retailer</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="str">
-        <f>A26</f>
-        <v>IFAS not poor: retailer</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="str">
-        <f>'[1]Programs to include'!A15</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="str">
-        <f>A28</f>
-        <v>IFAS not poor: retailer (malaria area)</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="str">
-        <f>'[1]Programs to include'!A16</f>
-        <v>IFAS not poor: school</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="str">
-        <f>A30</f>
-        <v>IFAS not poor: school</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="str">
-        <f>'[1]Programs to include'!A17</f>
-        <v>IFAS not poor: school (malaria area)</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="str">
-        <f>A32</f>
-        <v>IFAS not poor: school (malaria area)</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="str">
-        <f>'[1]Programs to include'!A18</f>
-        <v>IFAS poor: community</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="str">
-        <f>A34</f>
-        <v>IFAS poor: community</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="str">
-        <f>'[1]Programs to include'!A19</f>
-        <v>IFAS poor: community (malaria area)</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="str">
-        <f>A36</f>
-        <v>IFAS poor: community (malaria area)</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="str">
-        <f>'[1]Programs to include'!A20</f>
-        <v>IFAS poor: hospital</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="str">
-        <f>A38</f>
-        <v>IFAS poor: hospital</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="str">
-        <f>'[1]Programs to include'!A21</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="str">
-        <f>A40</f>
-        <v>IFAS poor: hospital (malaria area)</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="str">
-        <f>'[1]Programs to include'!A22</f>
-        <v>IFAS poor: school</v>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="str">
-        <f>A42</f>
-        <v>IFAS poor: school</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="str">
-        <f>'[1]Programs to include'!A23</f>
-        <v>IFAS poor: school (malaria area)</v>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="str">
-        <f>A44</f>
-        <v>IFAS poor: school (malaria area)</v>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="str">
-        <f>'[1]Programs to include'!A24</f>
-        <v>IPTp</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="str">
-        <f>A46</f>
-        <v>IPTp</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="str">
-        <f>'[1]Programs to include'!A25</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="str">
-        <f>A48</f>
-        <v>Iron and folic acid supplementation for pregnant women</v>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="str">
-        <f>'[1]Programs to include'!A26</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="str">
-        <f>A50</f>
-        <v>Iron and folic acid supplementation for pregnant women (malaria area)</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="str">
-        <f>'[1]Programs to include'!A27</f>
-        <v>Iron and iodine fortification of salt</v>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="str">
-        <f>A52</f>
-        <v>Iron and iodine fortification of salt</v>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="str">
-        <f>'[1]Programs to include'!A28</f>
-        <v>Iron fortification of maize</v>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="str">
-        <f>A54</f>
-        <v>Iron fortification of maize</v>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="str">
-        <f>'[1]Programs to include'!A29</f>
-        <v>Iron fortification of rice</v>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="str">
-        <f>A56</f>
-        <v>Iron fortification of rice</v>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="str">
-        <f>'[1]Programs to include'!A30</f>
-        <v>Iron fortification of wheat flour</v>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="str">
-        <f>A58</f>
-        <v>Iron fortification of wheat flour</v>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="str">
-        <f>'[1]Programs to include'!A31</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="str">
-        <f>A60</f>
-        <v>Long-lasting insecticide-treated bednets</v>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="str">
-        <f>'[1]Programs to include'!A32</f>
-        <v>Mg for eclampsia</v>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="str">
-        <f>A62</f>
-        <v>Mg for eclampsia</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="str">
-        <f>'[1]Programs to include'!A33</f>
-        <v>Mg for pre-eclampsia</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="str">
-        <f>A64</f>
-        <v>Mg for pre-eclampsia</v>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="str">
-        <f>'[1]Programs to include'!A34</f>
-        <v>Multiple micronutrient supplementation</v>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="str">
-        <f>A66</f>
-        <v>Multiple micronutrient supplementation</v>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="str">
-        <f>'[1]Programs to include'!A35</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="str">
-        <f>A68</f>
-        <v>Multiple micronutrient supplementation (malaria area)</v>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="str">
-        <f>'[1]Programs to include'!A36</f>
-        <v>Oral rehydration salts</v>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="str">
-        <f>A70</f>
-        <v>Oral rehydration salts</v>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="str">
-        <f>'[1]Programs to include'!A37</f>
-        <v>Public provision of complementary foods</v>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="str">
-        <f>A72</f>
-        <v>Public provision of complementary foods</v>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="str">
-        <f>'[1]Programs to include'!A38</f>
-        <v>Public provision of complementary foods with iron</v>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="str">
-        <f>A74</f>
-        <v>Public provision of complementary foods with iron</v>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="str">
-        <f>'[1]Programs to include'!A39</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="str">
-        <f>A76</f>
-        <v>Public provision of complementary foods with iron (malaria area)</v>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="str">
-        <f>'[1]Programs to include'!A40</f>
-        <v>Sprinkles</v>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="str">
-        <f>A78</f>
-        <v>Sprinkles</v>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="str">
-        <f>'[1]Programs to include'!A41</f>
-        <v>Sprinkles (malaria area)</v>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="str">
-        <f>A80</f>
-        <v>Sprinkles (malaria area)</v>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="str">
-        <f>'[1]Programs to include'!A42</f>
-        <v>Treatment of MAM</v>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="str">
-        <f>A82</f>
-        <v>Treatment of MAM</v>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="str">
-        <f>'[1]Programs to include'!A43</f>
-        <v>Treatment of SAM</v>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="str">
-        <f>A84</f>
-        <v>Treatment of SAM</v>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="str">
-        <f>'[1]Programs to include'!A44</f>
-        <v>Vitamin A supplementation</v>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="str">
-        <f>A86</f>
-        <v>Vitamin A supplementation</v>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="str">
-        <f>'[1]Programs to include'!A45</f>
-        <v>WASH: Handwashing</v>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="str">
-        <f>A88</f>
-        <v>WASH: Handwashing</v>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="str">
-        <f>'[1]Programs to include'!A46</f>
-        <v>WASH: Hygenic disposal</v>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="str">
-        <f>A90</f>
-        <v>WASH: Hygenic disposal</v>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="str">
-        <f>'[1]Programs to include'!A47</f>
-        <v>WASH: Improved sanitation</v>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="str">
-        <f>A92</f>
-        <v>WASH: Improved sanitation</v>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="str">
-        <f>'[1]Programs to include'!A48</f>
-        <v>WASH: Improved water source</v>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="str">
-        <f>A94</f>
-        <v>WASH: Improved water source</v>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="str">
-        <f>'[1]Programs to include'!A49</f>
-        <v>WASH: Piped water</v>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="str">
-        <f>A96</f>
-        <v>WASH: Piped water</v>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="str">
-        <f>'[1]Programs to include'!A50</f>
-        <v>Zinc for treatment + ORS</v>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="str">
-        <f>A98</f>
-        <v>Zinc for treatment + ORS</v>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="str">
-        <f>'[1]Programs to include'!A51</f>
-        <v>Zinc supplementation</v>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="str">
-        <f>A100</f>
-        <v>Zinc supplementation</v>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="str">
-        <f>'[1]Programs to include'!A52</f>
-        <v>IYCF 1</v>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="str">
-        <f>A102</f>
-        <v>IYCF 1</v>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="str">
-        <f>'[1]Programs to include'!A53</f>
-        <v>IYCF 2</v>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="str">
-        <f>A104</f>
-        <v>IYCF 2</v>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="str">
-        <f>'[1]Programs to include'!A54</f>
-        <v>IYCF 3</v>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="str">
-        <f>A106</f>
-        <v>IYCF 3</v>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>

--- a/applications/master/data/national/master_settings.xlsx
+++ b/applications/master/data/national/master_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7368D6BA-AA1C-4A4D-AE93-980F43005402}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BCF54B7D-6136-D148-B283-08DD17539AE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="4" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
+    <workbookView xWindow="-19200" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="2" xr2:uid="{3C28A406-3B38-3B44-81A1-855DF4E1C8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="IYCF packages" sheetId="7" r:id="rId1"/>
@@ -116,6 +116,39 @@
     <author>Sam</author>
   </authors>
   <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{BAB7FEB0-381E-0E44-BFF1-AA67329BA61E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Since based on input, should put this calculation into the code to avoid having external links</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{0F3D7585-AEE5-E942-9F79-E97E7B1F04C5}">
       <text>
         <r>
@@ -2028,8 +2061,8 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2125,7 +2158,7 @@
       <c r="C6" s="17">
         <v>0.95</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <f>SUM('[1]Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
@@ -2837,7 +2870,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2965,7 +2998,7 @@
   </sheetPr>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
